--- a/SEW_MTBF_optimization_1000h/analysis.xlsx
+++ b/SEW_MTBF_optimization_1000h/analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huu Truong Le\Desktop\CODING\SEW-data-analysis\SEW_MTBF_optimization_1000h\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong Le\CODING\SEW-data-analysis\SEW_MTBF_optimization_1000h\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E83FCA8-DEF5-4F87-B6B0-C7ED325C22C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9067294E-4C29-408D-BE87-4DB299AA9387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -41,28 +41,6 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="267">
   <si>
@@ -1005,8 +983,8 @@
     <t>Average intervention duration</t>
   </si>
   <si>
-    <t>Number of time of 
-MTBF in 1000</t>
+    <t>Number of times of 
+MTBF in 1000h</t>
   </si>
 </sst>
 </file>
@@ -1428,42 +1406,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB130"/>
+  <dimension ref="A1:Z130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63.5703125" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" customWidth="1"/>
-    <col min="3" max="4" width="38.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="63.5546875" customWidth="1"/>
+    <col min="2" max="2" width="44.5546875" customWidth="1"/>
+    <col min="3" max="4" width="38.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="40.5703125" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="40.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
     <col min="10" max="10" width="24" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" customWidth="1"/>
     <col min="14" max="14" width="27" customWidth="1"/>
-    <col min="15" max="15" width="31.140625" customWidth="1"/>
-    <col min="16" max="16" width="30.140625" customWidth="1"/>
-    <col min="17" max="17" width="31.28515625" customWidth="1"/>
-    <col min="18" max="18" width="24.28515625" customWidth="1"/>
-    <col min="19" max="19" width="28.7109375" customWidth="1"/>
-    <col min="20" max="20" width="36.7109375" customWidth="1"/>
-    <col min="21" max="21" width="57" customWidth="1"/>
-    <col min="22" max="22" width="36" customWidth="1"/>
-    <col min="23" max="23" width="24.85546875" customWidth="1"/>
-    <col min="24" max="24" width="44.42578125" customWidth="1"/>
-    <col min="25" max="25" width="39.85546875" customWidth="1"/>
-    <col min="26" max="26" width="28.7109375" customWidth="1"/>
+    <col min="15" max="15" width="31.109375" customWidth="1"/>
+    <col min="16" max="16" width="30.109375" customWidth="1"/>
+    <col min="17" max="17" width="31.33203125" customWidth="1"/>
+    <col min="18" max="18" width="34.33203125" customWidth="1"/>
+    <col min="19" max="19" width="24.6640625" customWidth="1"/>
+    <col min="20" max="20" width="15.5546875" customWidth="1"/>
+    <col min="21" max="21" width="25.21875" customWidth="1"/>
+    <col min="22" max="22" width="29.5546875" customWidth="1"/>
+    <col min="23" max="23" width="24.88671875" customWidth="1"/>
+    <col min="24" max="24" width="44.44140625" customWidth="1"/>
+    <col min="25" max="25" width="39.88671875" customWidth="1"/>
+    <col min="26" max="26" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1521,20 +1499,20 @@
       <c r="U1" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="V1" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="W1" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>264</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="Z1" s="13" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1593,23 +1571,19 @@
         <v>27.694433334516361</v>
       </c>
       <c r="V2" s="1">
+        <v>1.1077773333806544</v>
+      </c>
+      <c r="W2" s="1">
         <v>216.62279518886703</v>
       </c>
-      <c r="W2" s="1">
+      <c r="X2" s="1">
         <v>173.29823615109365</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>1.1077773333806544</v>
       </c>
       <c r="Z2" s="1">
         <v>5</v>
       </c>
-      <c r="AB2" cm="1">
-        <f t="array" ref="AB2:AB6">_xlfn._xlws.FILTER(_xlfn.SEQUENCE(FLOOR(1000/W2, 1), 1, W2, W2), _xlfn.SEQUENCE(FLOOR(1000/W2, 1), 1, W2, W2) &lt;= 1000)</f>
-        <v>173.29823615109365</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1668,22 +1642,19 @@
         <v>92.383807500998955</v>
       </c>
       <c r="V3" s="1">
+        <v>3.8493253125416231</v>
+      </c>
+      <c r="W3" s="1">
         <v>224.43107892354115</v>
       </c>
-      <c r="W3" s="1">
+      <c r="X3" s="1">
         <v>179.54486313883294</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>3.8493253125416231</v>
       </c>
       <c r="Z3" s="1">
         <v>5</v>
       </c>
-      <c r="AB3">
-        <v>346.59647230218729</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1742,22 +1713,19 @@
         <v>15.242442222603131</v>
       </c>
       <c r="V4" s="1">
+        <v>0.72583058202872053</v>
+      </c>
+      <c r="W4" s="1">
         <v>261.03625146823748</v>
       </c>
-      <c r="W4" s="1">
+      <c r="X4" s="1">
         <v>208.82900117458999</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>0.72583058202872053</v>
       </c>
       <c r="Z4" s="1">
         <v>4</v>
       </c>
-      <c r="AB4">
-        <v>519.89470845328094</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1816,22 +1784,19 @@
         <v>15.401251111237798</v>
       </c>
       <c r="V5" s="1">
+        <v>1.9251563889047247</v>
+      </c>
+      <c r="W5" s="1">
         <v>685.44593135415198</v>
       </c>
-      <c r="W5" s="1">
+      <c r="X5" s="1">
         <v>548.35674508332158</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>1.9251563889047247</v>
       </c>
       <c r="Z5" s="1">
         <v>1</v>
       </c>
-      <c r="AB5">
-        <v>693.19294460437459</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -1890,22 +1855,19 @@
         <v>3.444193611619994</v>
       </c>
       <c r="V6" s="1">
+        <v>0.49202765880285632</v>
+      </c>
+      <c r="W6" s="1">
         <v>784.92267301576373</v>
       </c>
-      <c r="W6" s="1">
+      <c r="X6" s="1">
         <v>627.93813841261101</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>0.49202765880285632</v>
       </c>
       <c r="Z6" s="1">
         <v>1</v>
       </c>
-      <c r="AB6">
-        <v>866.49118075546824</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -1964,19 +1926,19 @@
         <v>5.3387313883868046</v>
       </c>
       <c r="V7" s="1">
+        <v>0.8897885647311341</v>
+      </c>
+      <c r="W7" s="1">
         <v>915.41246574084892</v>
       </c>
-      <c r="W7" s="1">
+      <c r="X7" s="1">
         <v>732.32997259267916</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>0.8897885647311341</v>
       </c>
       <c r="Z7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,19 +1997,19 @@
         <v>5.1913555552018806</v>
       </c>
       <c r="V8" s="1">
+        <v>1.7304518517339602</v>
+      </c>
+      <c r="W8" s="1">
         <v>1831.5505975000171</v>
       </c>
-      <c r="W8" s="1">
+      <c r="X8" s="1">
         <v>1465.2404780000138</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>1.7304518517339602</v>
       </c>
       <c r="Z8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -2106,19 +2068,19 @@
         <v>3.2458094440517016</v>
       </c>
       <c r="V9" s="1">
+        <v>1.0819364813505672</v>
+      </c>
+      <c r="W9" s="1">
         <v>1831.0519360187075</v>
       </c>
-      <c r="W9" s="1">
+      <c r="X9" s="1">
         <v>1464.841548814966</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>1.0819364813505672</v>
       </c>
       <c r="Z9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -2177,19 +2139,19 @@
         <v>2.4456713885301724</v>
       </c>
       <c r="V10" s="1">
+        <v>0.81522379617672414</v>
+      </c>
+      <c r="W10" s="1">
         <v>1832.4309431482882</v>
       </c>
-      <c r="W10" s="1">
+      <c r="X10" s="1">
         <v>1465.9447545186306</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>0.81522379617672414</v>
       </c>
       <c r="Z10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -2248,19 +2210,19 @@
         <v>2.1275150001165457</v>
       </c>
       <c r="V11" s="1">
+        <v>0.70917166670551524</v>
+      </c>
+      <c r="W11" s="1">
         <v>1832.5951879629476</v>
       </c>
-      <c r="W11" s="1">
+      <c r="X11" s="1">
         <v>1466.0761503703582</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>0.70917166670551524</v>
       </c>
       <c r="Z11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,19 +2281,19 @@
         <v>27.927750000322703</v>
       </c>
       <c r="V12" s="1">
+        <v>13.963875000161352</v>
+      </c>
+      <c r="W12" s="1">
         <v>2732.6362643055909</v>
       </c>
-      <c r="W12" s="1">
+      <c r="X12" s="1">
         <v>2186.1090114444728</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>13.963875000161352</v>
       </c>
       <c r="Z12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,19 +2352,19 @@
         <v>0.95490194420563057</v>
       </c>
       <c r="V13" s="1">
+        <v>0.47745097210281529</v>
+      </c>
+      <c r="W13" s="1">
         <v>2749.4930579166976</v>
       </c>
-      <c r="W13" s="1">
+      <c r="X13" s="1">
         <v>2199.5944463333581</v>
-      </c>
-      <c r="Y13" s="1">
-        <v>0.47745097210281529</v>
       </c>
       <c r="Z13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -2461,19 +2423,19 @@
         <v>21.962745277793147</v>
       </c>
       <c r="V14" s="1">
+        <v>21.962745277793147</v>
+      </c>
+      <c r="W14" s="1">
         <v>5477.7548316666507</v>
       </c>
-      <c r="W14" s="1">
+      <c r="X14" s="1">
         <v>4382.2038653333211</v>
-      </c>
-      <c r="Y14" s="1">
-        <v>21.962745277793147</v>
       </c>
       <c r="Z14" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -2532,19 +2494,19 @@
         <v>4.4989916666527279</v>
       </c>
       <c r="V15" s="1">
+        <v>4.4989916666527279</v>
+      </c>
+      <c r="W15" s="1">
         <v>5495.2355036111549</v>
       </c>
-      <c r="W15" s="1">
+      <c r="X15" s="1">
         <v>4396.1884028889244</v>
-      </c>
-      <c r="Y15" s="1">
-        <v>4.4989916666527279</v>
       </c>
       <c r="Z15" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
@@ -2603,19 +2565,19 @@
         <v>3.3067130553536117</v>
       </c>
       <c r="V16" s="1">
+        <v>3.3067130553536117</v>
+      </c>
+      <c r="W16" s="1">
         <v>5496.6270249998779</v>
       </c>
-      <c r="W16" s="1">
+      <c r="X16" s="1">
         <v>4397.3016199999029</v>
-      </c>
-      <c r="Y16" s="1">
-        <v>3.3067130553536117</v>
       </c>
       <c r="Z16" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -2674,19 +2636,19 @@
         <v>2.6317769445595331</v>
       </c>
       <c r="V17" s="1">
+        <v>2.6317769445595331</v>
+      </c>
+      <c r="W17" s="1">
         <v>5496.2874452777323</v>
       </c>
-      <c r="W17" s="1">
+      <c r="X17" s="1">
         <v>4397.0299562221862</v>
-      </c>
-      <c r="Y17" s="1">
-        <v>2.6317769445595331</v>
       </c>
       <c r="Z17" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -2745,19 +2707,19 @@
         <v>2.2633008333505131</v>
       </c>
       <c r="V18" s="1">
+        <v>2.2633008333505131</v>
+      </c>
+      <c r="W18" s="1">
         <v>5497.5063788889092</v>
       </c>
-      <c r="W18" s="1">
+      <c r="X18" s="1">
         <v>4398.0051031111279</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>2.2633008333505131</v>
       </c>
       <c r="Z18" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -2816,19 +2778,19 @@
         <v>2.14952972199535</v>
       </c>
       <c r="V19" s="1">
+        <v>2.14952972199535</v>
+      </c>
+      <c r="W19" s="1">
         <v>5497.7340924997116</v>
       </c>
-      <c r="W19" s="1">
+      <c r="X19" s="1">
         <v>4398.1872739997698</v>
-      </c>
-      <c r="Y19" s="1">
-        <v>2.14952972199535</v>
       </c>
       <c r="Z19" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -2887,19 +2849,19 @@
         <v>2.0239841667353176</v>
       </c>
       <c r="V20" s="1">
+        <v>2.0239841667353176</v>
+      </c>
+      <c r="W20" s="1">
         <v>5496.0868908332195</v>
       </c>
-      <c r="W20" s="1">
+      <c r="X20" s="1">
         <v>4396.8695126665762</v>
-      </c>
-      <c r="Y20" s="1">
-        <v>2.0239841667353176</v>
       </c>
       <c r="Z20" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
@@ -2958,19 +2920,19 @@
         <v>2.021517499932088</v>
       </c>
       <c r="V21" s="1">
+        <v>2.021517499932088</v>
+      </c>
+      <c r="W21" s="1">
         <v>5497.3200408335542</v>
       </c>
-      <c r="W21" s="1">
+      <c r="X21" s="1">
         <v>4397.8560326668439</v>
-      </c>
-      <c r="Y21" s="1">
-        <v>2.021517499932088</v>
       </c>
       <c r="Z21" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
@@ -3029,19 +2991,19 @@
         <v>1.2310027778148651</v>
       </c>
       <c r="V22" s="1">
+        <v>1.2310027778148651</v>
+      </c>
+      <c r="W22" s="1">
         <v>5498.6535027775681</v>
       </c>
-      <c r="W22" s="1">
+      <c r="X22" s="1">
         <v>4398.922802222055</v>
-      </c>
-      <c r="Y22" s="1">
-        <v>1.2310027778148651</v>
       </c>
       <c r="Z22" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -3100,19 +3062,19 @@
         <v>1.1092583333957009</v>
       </c>
       <c r="V23" s="1">
+        <v>1.1092583333957009</v>
+      </c>
+      <c r="W23" s="1">
         <v>5498.8693194443476</v>
       </c>
-      <c r="W23" s="1">
+      <c r="X23" s="1">
         <v>4399.0954555554781</v>
-      </c>
-      <c r="Y23" s="1">
-        <v>1.1092583333957009</v>
       </c>
       <c r="Z23" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>68</v>
       </c>
@@ -3171,19 +3133,19 @@
         <v>1.0530813887016848</v>
       </c>
       <c r="V24" s="1">
+        <v>1.0530813887016848</v>
+      </c>
+      <c r="W24" s="1">
         <v>5498.7859213890042</v>
       </c>
-      <c r="W24" s="1">
+      <c r="X24" s="1">
         <v>4399.0287371112036</v>
-      </c>
-      <c r="Y24" s="1">
-        <v>1.0530813887016848</v>
       </c>
       <c r="Z24" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>70</v>
       </c>
@@ -3242,19 +3204,19 @@
         <v>0.97076027747243643</v>
       </c>
       <c r="V25" s="1">
+        <v>0.97076027747243643</v>
+      </c>
+      <c r="W25" s="1">
         <v>5498.9956138891284</v>
       </c>
-      <c r="W25" s="1">
+      <c r="X25" s="1">
         <v>4399.1964911113027</v>
-      </c>
-      <c r="Y25" s="1">
-        <v>0.97076027747243643</v>
       </c>
       <c r="Z25" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
@@ -3313,19 +3275,19 @@
         <v>0.77463250007713214</v>
       </c>
       <c r="V26" s="1">
+        <v>0.77463250007713214</v>
+      </c>
+      <c r="W26" s="1">
         <v>5498.8623000001535</v>
       </c>
-      <c r="W26" s="1">
+      <c r="X26" s="1">
         <v>4399.0898400001233</v>
-      </c>
-      <c r="Y26" s="1">
-        <v>0.77463250007713214</v>
       </c>
       <c r="Z26" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -3384,19 +3346,19 @@
         <v>0.63928805576870218</v>
       </c>
       <c r="V27" s="1">
+        <v>0.63928805576870218</v>
+      </c>
+      <c r="W27" s="1">
         <v>5498.9451036110986</v>
       </c>
-      <c r="W27" s="1">
+      <c r="X27" s="1">
         <v>4399.1560828888787</v>
-      </c>
-      <c r="Y27" s="1">
-        <v>0.63928805576870218</v>
       </c>
       <c r="Z27" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>75</v>
       </c>
@@ -3455,19 +3417,19 @@
         <v>0.57157500012544915</v>
       </c>
       <c r="V28" s="1">
+        <v>0.57157500012544915</v>
+      </c>
+      <c r="W28" s="1">
         <v>5499.37931111129</v>
       </c>
-      <c r="W28" s="1">
+      <c r="X28" s="1">
         <v>4399.5034488890324</v>
-      </c>
-      <c r="Y28" s="1">
-        <v>0.57157500012544915</v>
       </c>
       <c r="Z28" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
@@ -3526,19 +3488,19 @@
         <v>0.37062694440828636</v>
       </c>
       <c r="V29" s="1">
+        <v>0.37062694440828636</v>
+      </c>
+      <c r="W29" s="1">
         <v>5499.4919424999971</v>
       </c>
-      <c r="W29" s="1">
+      <c r="X29" s="1">
         <v>4399.5935539999982</v>
-      </c>
-      <c r="Y29" s="1">
-        <v>0.37062694440828636</v>
       </c>
       <c r="Z29" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>46</v>
       </c>
@@ -3585,7 +3547,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>80</v>
       </c>
@@ -3632,7 +3594,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -3679,7 +3641,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>85</v>
       </c>
@@ -3726,7 +3688,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3773,7 +3735,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>90</v>
       </c>
@@ -3820,7 +3782,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>80</v>
       </c>
@@ -3865,7 +3827,7 @@
       </c>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
@@ -3910,7 +3872,7 @@
       </c>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>56</v>
       </c>
@@ -3955,7 +3917,7 @@
       </c>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
@@ -4000,7 +3962,7 @@
       </c>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
@@ -4045,7 +4007,7 @@
       </c>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
@@ -4090,7 +4052,7 @@
       </c>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -4135,7 +4097,7 @@
       </c>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>105</v>
       </c>
@@ -4180,7 +4142,7 @@
       </c>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>21</v>
       </c>
@@ -4225,7 +4187,7 @@
       </c>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
@@ -4270,7 +4232,7 @@
       </c>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>41</v>
       </c>
@@ -4315,7 +4277,7 @@
       </c>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>41</v>
       </c>
@@ -4360,7 +4322,7 @@
       </c>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
@@ -4405,7 +4367,7 @@
       </c>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>41</v>
       </c>
@@ -4450,7 +4412,7 @@
       </c>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>46</v>
       </c>
@@ -4495,7 +4457,7 @@
       </c>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>29</v>
       </c>
@@ -4540,7 +4502,7 @@
       </c>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>29</v>
       </c>
@@ -4585,7 +4547,7 @@
       </c>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>124</v>
       </c>
@@ -4630,7 +4592,7 @@
       </c>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>46</v>
       </c>
@@ -4675,7 +4637,7 @@
       </c>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -4720,7 +4682,7 @@
       </c>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>41</v>
       </c>
@@ -4765,7 +4727,7 @@
       </c>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>133</v>
       </c>
@@ -4810,7 +4772,7 @@
       </c>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>29</v>
       </c>
@@ -4855,7 +4817,7 @@
       </c>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>11</v>
       </c>
@@ -4900,7 +4862,7 @@
       </c>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>41</v>
       </c>
@@ -4945,7 +4907,7 @@
       </c>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>29</v>
       </c>
@@ -4990,7 +4952,7 @@
       </c>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>46</v>
       </c>
@@ -5035,7 +4997,7 @@
       </c>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>29</v>
       </c>
@@ -5080,7 +5042,7 @@
       </c>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>11</v>
       </c>
@@ -5125,7 +5087,7 @@
       </c>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>21</v>
       </c>
@@ -5170,7 +5132,7 @@
       </c>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>29</v>
       </c>
@@ -5215,7 +5177,7 @@
       </c>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>41</v>
       </c>
@@ -5260,7 +5222,7 @@
       </c>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>41</v>
       </c>
@@ -5305,7 +5267,7 @@
       </c>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>46</v>
       </c>
@@ -5350,7 +5312,7 @@
       </c>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>41</v>
       </c>
@@ -5395,7 +5357,7 @@
       </c>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>41</v>
       </c>
@@ -5440,7 +5402,7 @@
       </c>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>29</v>
       </c>
@@ -5485,7 +5447,7 @@
       </c>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>56</v>
       </c>
@@ -5530,7 +5492,7 @@
       </c>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>46</v>
       </c>
@@ -5575,7 +5537,7 @@
       </c>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>46</v>
       </c>
@@ -5620,7 +5582,7 @@
       </c>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>56</v>
       </c>
@@ -5665,7 +5627,7 @@
       </c>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>46</v>
       </c>
@@ -5710,7 +5672,7 @@
       </c>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>46</v>
       </c>
@@ -5755,7 +5717,7 @@
       </c>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>168</v>
       </c>
@@ -5800,7 +5762,7 @@
       </c>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>41</v>
       </c>
@@ -5845,7 +5807,7 @@
       </c>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>29</v>
       </c>
@@ -5890,7 +5852,7 @@
       </c>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>133</v>
       </c>
@@ -5935,7 +5897,7 @@
       </c>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>41</v>
       </c>
@@ -5980,7 +5942,7 @@
       </c>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>179</v>
       </c>
@@ -6025,7 +5987,7 @@
       </c>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>29</v>
       </c>
@@ -6070,7 +6032,7 @@
       </c>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>29</v>
       </c>
@@ -6115,7 +6077,7 @@
       </c>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>29</v>
       </c>
@@ -6160,7 +6122,7 @@
       </c>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>46</v>
       </c>
@@ -6205,7 +6167,7 @@
       </c>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>29</v>
       </c>
@@ -6250,7 +6212,7 @@
       </c>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>11</v>
       </c>
@@ -6295,7 +6257,7 @@
       </c>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>133</v>
       </c>
@@ -6340,7 +6302,7 @@
       </c>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>41</v>
       </c>
@@ -6385,7 +6347,7 @@
       </c>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>195</v>
       </c>
@@ -6430,7 +6392,7 @@
       </c>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>41</v>
       </c>
@@ -6475,7 +6437,7 @@
       </c>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>46</v>
       </c>
@@ -6520,7 +6482,7 @@
       </c>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>195</v>
       </c>
@@ -6565,7 +6527,7 @@
       </c>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>46</v>
       </c>
@@ -6610,7 +6572,7 @@
       </c>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>46</v>
       </c>
@@ -6655,7 +6617,7 @@
       </c>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>41</v>
       </c>
@@ -6700,7 +6662,7 @@
       </c>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>29</v>
       </c>
@@ -6745,7 +6707,7 @@
       </c>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>29</v>
       </c>
@@ -6790,7 +6752,7 @@
       </c>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>46</v>
       </c>
@@ -6835,7 +6797,7 @@
       </c>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>56</v>
       </c>
@@ -6880,7 +6842,7 @@
       </c>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>195</v>
       </c>
@@ -6925,7 +6887,7 @@
       </c>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>56</v>
       </c>
@@ -6970,7 +6932,7 @@
       </c>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>29</v>
       </c>
@@ -7015,7 +6977,7 @@
       </c>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>21</v>
       </c>
@@ -7060,7 +7022,7 @@
       </c>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>46</v>
       </c>
@@ -7105,7 +7067,7 @@
       </c>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>46</v>
       </c>
@@ -7150,7 +7112,7 @@
       </c>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>46</v>
       </c>
@@ -7195,7 +7157,7 @@
       </c>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>11</v>
       </c>
@@ -7240,7 +7202,7 @@
       </c>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>41</v>
       </c>
@@ -7285,7 +7247,7 @@
       </c>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>29</v>
       </c>
@@ -7330,7 +7292,7 @@
       </c>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>41</v>
       </c>
@@ -7375,7 +7337,7 @@
       </c>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>46</v>
       </c>
@@ -7420,7 +7382,7 @@
       </c>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>41</v>
       </c>
@@ -7465,7 +7427,7 @@
       </c>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>41</v>
       </c>
@@ -7510,7 +7472,7 @@
       </c>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>11</v>
       </c>
@@ -7555,7 +7517,7 @@
       </c>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>21</v>
       </c>
@@ -7600,7 +7562,7 @@
       </c>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>46</v>
       </c>
@@ -7645,7 +7607,7 @@
       </c>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>11</v>
       </c>
@@ -7690,7 +7652,7 @@
       </c>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>243</v>
       </c>
@@ -7735,7 +7697,7 @@
       </c>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>46</v>
       </c>
@@ -7780,7 +7742,7 @@
       </c>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>29</v>
       </c>
@@ -7825,7 +7787,7 @@
       </c>
       <c r="O124" s="1"/>
     </row>
-    <row r="130" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
         <v>249</v>
       </c>

--- a/SEW_MTBF_optimization_1000h/analysis.xlsx
+++ b/SEW_MTBF_optimization_1000h/analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong Le\CODING\SEW-data-analysis\SEW_MTBF_optimization_1000h\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9067294E-4C29-408D-BE87-4DB299AA9387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF50225D-02A0-4DF8-B628-16BF542E8F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="272">
   <si>
     <t>Libellé parc</t>
   </si>
@@ -985,6 +985,27 @@
   <si>
     <t>Number of times of 
 MTBF in 1000h</t>
+  </si>
+  <si>
+    <t>Total downtime
+(hour)</t>
+  </si>
+  <si>
+    <t>Total intervention duration
+(hour)</t>
+  </si>
+  <si>
+    <t>Average intervention duration
+(hour)</t>
+  </si>
+  <si>
+    <t>MTBF = (Time horizon - Downtime)
+ / Number of faults
+(hour)</t>
+  </si>
+  <si>
+    <t>80% MTBF
+(hour)</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1125,6 +1146,9 @@
     </xf>
     <xf numFmtId="4" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1406,10 +1430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z130"/>
+  <dimension ref="A1:AH130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG15" sqref="AG15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1439,9 +1463,17 @@
     <col min="24" max="24" width="44.44140625" customWidth="1"/>
     <col min="25" max="25" width="39.88671875" customWidth="1"/>
     <col min="26" max="26" width="28.6640625" customWidth="1"/>
+    <col min="27" max="27" width="5.6640625" customWidth="1"/>
+    <col min="28" max="28" width="47.88671875" customWidth="1"/>
+    <col min="29" max="29" width="26.88671875" customWidth="1"/>
+    <col min="30" max="30" width="15.6640625" customWidth="1"/>
+    <col min="31" max="31" width="27.33203125" customWidth="1"/>
+    <col min="32" max="32" width="28" customWidth="1"/>
+    <col min="33" max="33" width="26.6640625" customWidth="1"/>
+    <col min="34" max="34" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1511,8 +1543,29 @@
       <c r="Z1" s="13" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB1" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="AH1" s="15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1582,8 +1635,34 @@
       <c r="Z2" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC2" s="10">
+        <v>25</v>
+      </c>
+      <c r="AD2" s="1">
+        <f>ROUND(T2,2)</f>
+        <v>84.43</v>
+      </c>
+      <c r="AE2" s="1">
+        <f t="shared" ref="AE2:AH17" si="0">ROUND(U2,2)</f>
+        <v>27.69</v>
+      </c>
+      <c r="AF2" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AG2" s="1">
+        <f t="shared" si="0"/>
+        <v>216.62</v>
+      </c>
+      <c r="AH2" s="1">
+        <f t="shared" si="0"/>
+        <v>173.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1653,8 +1732,34 @@
       <c r="Z3" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC3" s="10">
+        <v>24</v>
+      </c>
+      <c r="AD3" s="1">
+        <f t="shared" ref="AD3:AE29" si="1">ROUND(T3,2)</f>
+        <v>113.65</v>
+      </c>
+      <c r="AE3" s="1">
+        <f t="shared" si="0"/>
+        <v>92.38</v>
+      </c>
+      <c r="AF3" s="1">
+        <f t="shared" si="0"/>
+        <v>3.85</v>
+      </c>
+      <c r="AG3" s="1">
+        <f t="shared" si="0"/>
+        <v>224.43</v>
+      </c>
+      <c r="AH3" s="1">
+        <f t="shared" si="0"/>
+        <v>179.54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1724,8 +1829,34 @@
       <c r="Z4" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC4" s="10">
+        <v>21</v>
+      </c>
+      <c r="AD4" s="1">
+        <f t="shared" si="1"/>
+        <v>18.239999999999998</v>
+      </c>
+      <c r="AE4" s="1">
+        <f t="shared" si="0"/>
+        <v>15.24</v>
+      </c>
+      <c r="AF4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.73</v>
+      </c>
+      <c r="AG4" s="1">
+        <f t="shared" si="0"/>
+        <v>261.04000000000002</v>
+      </c>
+      <c r="AH4" s="1">
+        <f t="shared" si="0"/>
+        <v>208.83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1795,8 +1926,34 @@
       <c r="Z5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC5" s="10">
+        <v>8</v>
+      </c>
+      <c r="AD5" s="1">
+        <f t="shared" si="1"/>
+        <v>16.43</v>
+      </c>
+      <c r="AE5" s="1">
+        <f t="shared" si="0"/>
+        <v>15.4</v>
+      </c>
+      <c r="AF5" s="1">
+        <f t="shared" si="0"/>
+        <v>1.93</v>
+      </c>
+      <c r="AG5" s="1">
+        <f t="shared" si="0"/>
+        <v>685.45</v>
+      </c>
+      <c r="AH5" s="1">
+        <f t="shared" si="0"/>
+        <v>548.36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -1866,8 +2023,34 @@
       <c r="Z6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC6" s="10">
+        <v>7</v>
+      </c>
+      <c r="AD6" s="1">
+        <f t="shared" si="1"/>
+        <v>5.54</v>
+      </c>
+      <c r="AE6" s="1">
+        <f t="shared" si="0"/>
+        <v>3.44</v>
+      </c>
+      <c r="AF6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.49</v>
+      </c>
+      <c r="AG6" s="1">
+        <f t="shared" si="0"/>
+        <v>784.92</v>
+      </c>
+      <c r="AH6" s="1">
+        <f t="shared" si="0"/>
+        <v>627.94000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -1937,8 +2120,34 @@
       <c r="Z7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC7" s="10">
+        <v>6</v>
+      </c>
+      <c r="AD7" s="1">
+        <f t="shared" si="1"/>
+        <v>7.53</v>
+      </c>
+      <c r="AE7" s="1">
+        <f t="shared" si="0"/>
+        <v>5.34</v>
+      </c>
+      <c r="AF7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.89</v>
+      </c>
+      <c r="AG7" s="1">
+        <f t="shared" si="0"/>
+        <v>915.41</v>
+      </c>
+      <c r="AH7" s="1">
+        <f t="shared" si="0"/>
+        <v>732.33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -2008,8 +2217,34 @@
       <c r="Z8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC8" s="10">
+        <v>3</v>
+      </c>
+      <c r="AD8" s="1">
+        <f t="shared" si="1"/>
+        <v>5.35</v>
+      </c>
+      <c r="AE8" s="1">
+        <f t="shared" si="0"/>
+        <v>5.19</v>
+      </c>
+      <c r="AF8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.73</v>
+      </c>
+      <c r="AG8" s="1">
+        <f t="shared" si="0"/>
+        <v>1831.55</v>
+      </c>
+      <c r="AH8" s="1">
+        <f t="shared" si="0"/>
+        <v>1465.24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -2079,8 +2314,34 @@
       <c r="Z9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC9" s="10">
+        <v>3</v>
+      </c>
+      <c r="AD9" s="1">
+        <f t="shared" si="1"/>
+        <v>6.84</v>
+      </c>
+      <c r="AE9" s="1">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
+      <c r="AF9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.08</v>
+      </c>
+      <c r="AG9" s="1">
+        <f t="shared" si="0"/>
+        <v>1831.05</v>
+      </c>
+      <c r="AH9" s="1">
+        <f t="shared" si="0"/>
+        <v>1464.84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -2150,8 +2411,34 @@
       <c r="Z10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC10" s="10">
+        <v>3</v>
+      </c>
+      <c r="AD10" s="1">
+        <f t="shared" si="1"/>
+        <v>2.71</v>
+      </c>
+      <c r="AE10" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="AF10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.82</v>
+      </c>
+      <c r="AG10" s="1">
+        <f t="shared" si="0"/>
+        <v>1832.43</v>
+      </c>
+      <c r="AH10" s="1">
+        <f t="shared" si="0"/>
+        <v>1465.94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -2221,8 +2508,34 @@
       <c r="Z11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB11" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC11" s="10">
+        <v>3</v>
+      </c>
+      <c r="AD11" s="1">
+        <f t="shared" si="1"/>
+        <v>2.21</v>
+      </c>
+      <c r="AE11" s="1">
+        <f t="shared" si="0"/>
+        <v>2.13</v>
+      </c>
+      <c r="AF11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.71</v>
+      </c>
+      <c r="AG11" s="1">
+        <f t="shared" si="0"/>
+        <v>1832.6</v>
+      </c>
+      <c r="AH11" s="1">
+        <f t="shared" si="0"/>
+        <v>1466.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -2292,8 +2605,34 @@
       <c r="Z12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC12" s="10">
+        <v>2</v>
+      </c>
+      <c r="AD12" s="1">
+        <f t="shared" si="1"/>
+        <v>34.729999999999997</v>
+      </c>
+      <c r="AE12" s="1">
+        <f t="shared" si="0"/>
+        <v>27.93</v>
+      </c>
+      <c r="AF12" s="1">
+        <f t="shared" si="0"/>
+        <v>13.96</v>
+      </c>
+      <c r="AG12" s="1">
+        <f t="shared" si="0"/>
+        <v>2732.64</v>
+      </c>
+      <c r="AH12" s="1">
+        <f t="shared" si="0"/>
+        <v>2186.11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -2363,8 +2702,34 @@
       <c r="Z13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC13" s="10">
+        <v>2</v>
+      </c>
+      <c r="AD13" s="1">
+        <f t="shared" si="1"/>
+        <v>1.01</v>
+      </c>
+      <c r="AE13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.95</v>
+      </c>
+      <c r="AF13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+      <c r="AG13" s="1">
+        <f t="shared" si="0"/>
+        <v>2749.49</v>
+      </c>
+      <c r="AH13" s="1">
+        <f t="shared" si="0"/>
+        <v>2199.59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -2434,8 +2799,34 @@
       <c r="Z14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC14" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="1">
+        <f t="shared" si="1"/>
+        <v>22.25</v>
+      </c>
+      <c r="AE14" s="1">
+        <f t="shared" si="0"/>
+        <v>21.96</v>
+      </c>
+      <c r="AF14" s="1">
+        <f t="shared" si="0"/>
+        <v>21.96</v>
+      </c>
+      <c r="AG14" s="1">
+        <f t="shared" si="0"/>
+        <v>5477.75</v>
+      </c>
+      <c r="AH14" s="1">
+        <f t="shared" si="0"/>
+        <v>4382.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -2505,8 +2896,34 @@
       <c r="Z15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="1">
+        <f t="shared" si="1"/>
+        <v>4.76</v>
+      </c>
+      <c r="AE15" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="AF15" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="AG15" s="1">
+        <f t="shared" si="0"/>
+        <v>5495.24</v>
+      </c>
+      <c r="AH15" s="1">
+        <f t="shared" si="0"/>
+        <v>4396.1899999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
@@ -2576,8 +2993,34 @@
       <c r="Z16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC16" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="1">
+        <f t="shared" si="1"/>
+        <v>3.37</v>
+      </c>
+      <c r="AE16" s="1">
+        <f t="shared" si="0"/>
+        <v>3.31</v>
+      </c>
+      <c r="AF16" s="1">
+        <f t="shared" si="0"/>
+        <v>3.31</v>
+      </c>
+      <c r="AG16" s="1">
+        <f t="shared" si="0"/>
+        <v>5496.63</v>
+      </c>
+      <c r="AH16" s="1">
+        <f t="shared" si="0"/>
+        <v>4397.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -2647,8 +3090,34 @@
       <c r="Z17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC17" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="1">
+        <f t="shared" si="1"/>
+        <v>3.71</v>
+      </c>
+      <c r="AE17" s="1">
+        <f t="shared" si="0"/>
+        <v>2.63</v>
+      </c>
+      <c r="AF17" s="1">
+        <f t="shared" si="0"/>
+        <v>2.63</v>
+      </c>
+      <c r="AG17" s="1">
+        <f t="shared" si="0"/>
+        <v>5496.29</v>
+      </c>
+      <c r="AH17" s="1">
+        <f t="shared" si="0"/>
+        <v>4397.03</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -2718,8 +3187,34 @@
       <c r="Z18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="AE18" s="1">
+        <f t="shared" ref="AE18:AE29" si="2">ROUND(U18,2)</f>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="AF18" s="1">
+        <f t="shared" ref="AF18:AF29" si="3">ROUND(V18,2)</f>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="AG18" s="1">
+        <f t="shared" ref="AG18:AG29" si="4">ROUND(W18,2)</f>
+        <v>5497.51</v>
+      </c>
+      <c r="AH18" s="1">
+        <f t="shared" ref="AH18:AH29" si="5">ROUND(X18,2)</f>
+        <v>4398.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -2789,8 +3284,34 @@
       <c r="Z19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC19" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="1">
+        <f t="shared" si="1"/>
+        <v>2.27</v>
+      </c>
+      <c r="AE19" s="1">
+        <f t="shared" si="2"/>
+        <v>2.15</v>
+      </c>
+      <c r="AF19" s="1">
+        <f t="shared" si="3"/>
+        <v>2.15</v>
+      </c>
+      <c r="AG19" s="1">
+        <f t="shared" si="4"/>
+        <v>5497.73</v>
+      </c>
+      <c r="AH19" s="1">
+        <f t="shared" si="5"/>
+        <v>4398.1899999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -2860,8 +3381,34 @@
       <c r="Z20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC20" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="1">
+        <f t="shared" si="1"/>
+        <v>3.91</v>
+      </c>
+      <c r="AE20" s="1">
+        <f t="shared" si="2"/>
+        <v>2.02</v>
+      </c>
+      <c r="AF20" s="1">
+        <f t="shared" si="3"/>
+        <v>2.02</v>
+      </c>
+      <c r="AG20" s="1">
+        <f t="shared" si="4"/>
+        <v>5496.09</v>
+      </c>
+      <c r="AH20" s="1">
+        <f t="shared" si="5"/>
+        <v>4396.87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
@@ -2931,8 +3478,34 @@
       <c r="Z21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC21" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="1">
+        <f t="shared" si="1"/>
+        <v>2.68</v>
+      </c>
+      <c r="AE21" s="1">
+        <f t="shared" si="2"/>
+        <v>2.02</v>
+      </c>
+      <c r="AF21" s="1">
+        <f t="shared" si="3"/>
+        <v>2.02</v>
+      </c>
+      <c r="AG21" s="1">
+        <f t="shared" si="4"/>
+        <v>5497.32</v>
+      </c>
+      <c r="AH21" s="1">
+        <f t="shared" si="5"/>
+        <v>4397.8599999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
@@ -3002,8 +3575,34 @@
       <c r="Z22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="1">
+        <f t="shared" si="1"/>
+        <v>1.35</v>
+      </c>
+      <c r="AE22" s="1">
+        <f t="shared" si="2"/>
+        <v>1.23</v>
+      </c>
+      <c r="AF22" s="1">
+        <f t="shared" si="3"/>
+        <v>1.23</v>
+      </c>
+      <c r="AG22" s="1">
+        <f t="shared" si="4"/>
+        <v>5498.65</v>
+      </c>
+      <c r="AH22" s="1">
+        <f t="shared" si="5"/>
+        <v>4398.92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -3073,8 +3672,34 @@
       <c r="Z23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC23" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AE23" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AF23" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AG23" s="1">
+        <f t="shared" si="4"/>
+        <v>5498.87</v>
+      </c>
+      <c r="AH23" s="1">
+        <f t="shared" si="5"/>
+        <v>4399.1000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>68</v>
       </c>
@@ -3144,8 +3769,34 @@
       <c r="Z24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC24" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="1">
+        <f t="shared" si="1"/>
+        <v>1.21</v>
+      </c>
+      <c r="AE24" s="1">
+        <f t="shared" si="2"/>
+        <v>1.05</v>
+      </c>
+      <c r="AF24" s="1">
+        <f t="shared" si="3"/>
+        <v>1.05</v>
+      </c>
+      <c r="AG24" s="1">
+        <f t="shared" si="4"/>
+        <v>5498.79</v>
+      </c>
+      <c r="AH24" s="1">
+        <f t="shared" si="5"/>
+        <v>4399.03</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>70</v>
       </c>
@@ -3215,8 +3866,34 @@
       <c r="Z25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB25" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC25" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AE25" s="1">
+        <f t="shared" si="2"/>
+        <v>0.97</v>
+      </c>
+      <c r="AF25" s="1">
+        <f t="shared" si="3"/>
+        <v>0.97</v>
+      </c>
+      <c r="AG25" s="1">
+        <f t="shared" si="4"/>
+        <v>5499</v>
+      </c>
+      <c r="AH25" s="1">
+        <f t="shared" si="5"/>
+        <v>4399.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
@@ -3286,8 +3963,34 @@
       <c r="Z26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AE26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.77</v>
+      </c>
+      <c r="AF26" s="1">
+        <f t="shared" si="3"/>
+        <v>0.77</v>
+      </c>
+      <c r="AG26" s="1">
+        <f t="shared" si="4"/>
+        <v>5498.86</v>
+      </c>
+      <c r="AH26" s="1">
+        <f t="shared" si="5"/>
+        <v>4399.09</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -3357,8 +4060,34 @@
       <c r="Z27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB27" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC27" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="1">
+        <f t="shared" si="1"/>
+        <v>1.05</v>
+      </c>
+      <c r="AE27" s="1">
+        <f t="shared" si="2"/>
+        <v>0.64</v>
+      </c>
+      <c r="AF27" s="1">
+        <f t="shared" si="3"/>
+        <v>0.64</v>
+      </c>
+      <c r="AG27" s="1">
+        <f t="shared" si="4"/>
+        <v>5498.95</v>
+      </c>
+      <c r="AH27" s="1">
+        <f t="shared" si="5"/>
+        <v>4399.16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>75</v>
       </c>
@@ -3428,8 +4157,34 @@
       <c r="Z28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC28" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="1">
+        <f t="shared" si="1"/>
+        <v>0.62</v>
+      </c>
+      <c r="AE28" s="1">
+        <f t="shared" si="2"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AF28" s="1">
+        <f t="shared" si="3"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AG28" s="1">
+        <f t="shared" si="4"/>
+        <v>5499.38</v>
+      </c>
+      <c r="AH28" s="1">
+        <f t="shared" si="5"/>
+        <v>4399.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
@@ -3499,8 +4254,34 @@
       <c r="Z29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC29" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="1">
+        <f t="shared" si="1"/>
+        <v>0.51</v>
+      </c>
+      <c r="AE29" s="1">
+        <f t="shared" si="2"/>
+        <v>0.37</v>
+      </c>
+      <c r="AF29" s="1">
+        <f t="shared" si="3"/>
+        <v>0.37</v>
+      </c>
+      <c r="AG29" s="1">
+        <f t="shared" si="4"/>
+        <v>5499.49</v>
+      </c>
+      <c r="AH29" s="1">
+        <f t="shared" si="5"/>
+        <v>4399.59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>46</v>
       </c>
@@ -3547,7 +4328,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>80</v>
       </c>
@@ -3594,7 +4375,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
